--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BF/15/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BF/15/seed3/result_data_KNN.xlsx
@@ -567,7 +567,7 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.292</v>
+        <v>5.93</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -601,7 +601,7 @@
         <v>-18.76</v>
       </c>
       <c r="B10" t="n">
-        <v>6.958</v>
+        <v>6.851999999999999</v>
       </c>
       <c r="C10" t="n">
         <v>-10.58</v>
@@ -635,7 +635,7 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>5.294</v>
+        <v>6.549000000000001</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -661,7 +661,7 @@
         <v>-8.92</v>
       </c>
       <c r="E13" t="n">
-        <v>13.666</v>
+        <v>12.583</v>
       </c>
     </row>
     <row r="14">
@@ -737,7 +737,7 @@
         <v>-23.05</v>
       </c>
       <c r="B18" t="n">
-        <v>5.294</v>
+        <v>6.548999999999999</v>
       </c>
       <c r="C18" t="n">
         <v>-15.19</v>
